--- a/biology/Botanique/Cephalomanes/Cephalomanes.xlsx
+++ b/biology/Botanique/Cephalomanes/Cephalomanes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cephalomanes est un genre de fougères de la famille des Hyménophyllacées. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les principales caractéristiques du genre sont :
 les limbes des frondes divisés une fois
@@ -547,7 +561,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces sont exclusivement tropicales ou équatoriales d'Asie ou du Pacifique. 
 </t>
@@ -580,15 +596,55 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Historique du genre
-Le genre a été créé par Karel Bořivoj Presl en 1843[1].
-Karl Anton Eugen Prantl en fait une section du genre Lacostea Copel en 1875[2]
-Cornelis Rugier Willem Karel van Alderwerelt van Rosenburgh en fait une série en 1908 - Trichomanes sect. Eutrichomanes  subsect. Lacostea series Cephalomanes (C.Presl) Alderw. - de la sous-section Lacostea[3].
-Konrad Hermann Heinrich Christ en fait un sous-genre du genre Trichomanes en 1906[4], suivi en cela par Roland Bonaparte en 1919[5].
-Conrad Vernon Morton crée une section Cephalomanes du sous-genre Trichomanes subg. Pachychaetum en 1968[6].
+          <t>Historique du genre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été créé par Karel Bořivoj Presl en 1843.
+Karl Anton Eugen Prantl en fait une section du genre Lacostea Copel en 1875
+Cornelis Rugier Willem Karel van Alderwerelt van Rosenburgh en fait une série en 1908 - Trichomanes sect. Eutrichomanes  subsect. Lacostea series Cephalomanes (C.Presl) Alderw. - de la sous-section Lacostea.
+Konrad Hermann Heinrich Christ en fait un sous-genre du genre Trichomanes en 1906, suivi en cela par Roland Bonaparte en 1919.
+Conrad Vernon Morton crée une section Cephalomanes du sous-genre Trichomanes subg. Pachychaetum en 1968.
 Enfin, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito reconnaissent à nouveau le genre en 2006, sur la base d'études de phylogénétique moléculaire.
-Liste des espèces
-La liste des espèces a été constituée en premier à partir du document de Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito, et a été complétée des indications des index IPNI[7] et Tropicos[8] à la date de juin 2010. Lorsque ces indications n'ont pas été suffisantes, en particulier pour les synonymies, elles ont été recherchées dans les documents et index historiques comme ceux de Conrad Vernon Morton, Christensen (en général retranscrit par l'IPNI) et tout autre document disponible, en particulier sur le site de la librairie numérique sur la biodiversité[9].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cephalomanes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cephalomanes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dénominations et systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La liste des espèces a été constituée en premier à partir du document de Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito, et a été complétée des indications des index IPNI et Tropicos à la date de juin 2010. Lorsque ces indications n'ont pas été suffisantes, en particulier pour les synonymies, elles ont été recherchées dans les documents et index historiques comme ceux de Conrad Vernon Morton, Christensen (en général retranscrit par l'IPNI) et tout autre document disponible, en particulier sur le site de la librairie numérique sur la biodiversité.
 En gras sont indiquées les espèces retenues, non synonymes ou classées par ailleurs.
 Cephalomanes acranthum (H.Ito) Tagawa (1950) - Îles Liu-Kiu - Synonyme : Trichomanes acranthum H.Ito
 Cephalomanes acrosorum (Copel.) Copel. (1938) - Nouvelle-Guinée - Voir Cephalomanes atrovirens f. acrosorum (Copel.) K.Iwats. - Synonyme : Trichomanes acrosorum Copel.
@@ -616,7 +672,7 @@
 Cephalomanes elegans (Rich.) K.Iwats. (1984) - Amérique tropicale - Voir Trichomanes elegans Rich. - Synonyme : Davalliopsis elegans (Rich.) Copel.
 Cephalomanes gemmatum (J.Sm.) K.Iwats. (1985) - Brésil - Voir Abrodictyum cellulosum (Klotzsch) Ebihara &amp; Dubuisson - Synonymes : Trichomanes gemmatum J.Sm., Trichomanes cellulosum Klotzsch
 Cephalomanes grande (Copel.) K.Iwats. (1984) - Philippines, Bornéo, Nouvelle-Guinée - Voir Crepidomanes grande (Copel.) Ebihara &amp; K.Iwats. - Synonymes : Nesopteris grandis (Copel.) Copel., Trichomanes grande Copel., Trichomanes millefolium C.Presl (pour partie), Trichomanes preslianum Nakai
-Cephalomanes javanicum (Blume) C.Presl (1848) - Chine, Indonésie, Japon, Philippines - Synonymes : Cephalomanes curvatum Bosch, Cephalomanes rhomboideum Bosch, Cephalomanes singaporianum Bosch, Cephalomanes wilkesii Bosch, Cephalomanes zollingeri (Bosch) Bosch, Lacostea javanica (Blume) Prantl, Lacostea rhomboidea (Bosch) Prantl, Lacostea singaporiana (Bosch) Prantl, Lacostea zollingeri(Bosch) Prantl, Trichomanes borneense Alderw., Trichomanes javanicum Blume[10],Trichomanes singaporianum (Bosch) Alderw., Trichomanes zollingeri Bosch
+Cephalomanes javanicum (Blume) C.Presl (1848) - Chine, Indonésie, Japon, Philippines - Synonymes : Cephalomanes curvatum Bosch, Cephalomanes rhomboideum Bosch, Cephalomanes singaporianum Bosch, Cephalomanes wilkesii Bosch, Cephalomanes zollingeri (Bosch) Bosch, Lacostea javanica (Blume) Prantl, Lacostea rhomboidea (Bosch) Prantl, Lacostea singaporiana (Bosch) Prantl, Lacostea zollingeri(Bosch) Prantl, Trichomanes borneense Alderw., Trichomanes javanicum Blume,Trichomanes singaporianum (Bosch) Alderw., Trichomanes zollingeri Bosch
 Cephalomanes javanicum var. asplenioides (C.Presl) K.Iwats. (1985) - Chine, Japon, Philippines - Synonymes : Cephalomanes asplenioides (C.Presl) C.Presl,  Cephalomanes laciniatum (Roxb.) DeVol in H.L.Li, Liu, T.C.Huang, T.Koyama &amp; DeVol, Cephalomanes oblongifolium C.Presl, Trichomanes asplenioides C.Presl, Trichomanes javanicum var. asplenioides (C.Presl) C.Chr., Trichomanes laciniatum Roxb.
 Cephalomanes javanicum var. sumatranum (Alderw.) K.Iwats. (1985) - Chine, Vietnam - Synonymes : Cephalomanes sumatranum (Alderw.) Copel., Trichomanes sumatranum Alderw.
 Cephalomanes kingii (Copel.) Copel. (1938) - Nouvelle-Guinée - Voir Cephalomanes atrovirens f. kingii (Copel.) K.Iwats. - Synonyme : Trichomanes kingii Copel.
